--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.57</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,20 +588,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -586,20 +626,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,25 +710,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006593</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道中证500指数增强A</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006594</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道中证500指数增强C</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>93.48</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>167706</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>德邦量化新锐股票(LOF) C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.87</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.18</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2402,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.88</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.87</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3002,14 +3067,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3018,14 +3105,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.18</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3034,13 +3143,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3794,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3805,17 +3806,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3825,14 +3846,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.39</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3841,14 +3884,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.88</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3857,14 +3922,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.87</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3873,14 +3960,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3889,14 +3998,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.18</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3905,13 +4036,713 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>5.92</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>4.39</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>2.88</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -600,6 +617,1008 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +3286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,7 +4500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3803,7 +4822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4543,7 +5562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600039-四川路桥.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>5.92</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>4.39</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>2.88</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +842,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +2881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2432,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3286,7 +4549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3988,7 +5251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4500,7 +5763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4822,7 +6085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5560,212 +6823,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>